--- a/tietokannan testitapaukset.xlsx
+++ b/tietokannan testitapaukset.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Testaaja</t>
   </si>
@@ -92,114 +92,6 @@
     <t>ok</t>
   </si>
   <si>
-    <t>Kirjatuminen</t>
-  </si>
-  <si>
-    <t>Olemassa tunnukset</t>
-  </si>
-  <si>
-    <t>Salasana ja käyttäjätunnus väärin</t>
-  </si>
-  <si>
-    <t>Virheilmoitus</t>
-  </si>
-  <si>
-    <t>Ilmoittautuminen retkelle</t>
-  </si>
-  <si>
-    <t>Tietää minkä varaa ja on tarvittavat tiedot</t>
-  </si>
-  <si>
-    <t>Varataan retki ja sähköpostiin tulee viesti</t>
-  </si>
-  <si>
-    <t>"Osallistuja lisätty"</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>Ei lähetä sähköpostia</t>
-  </si>
-  <si>
-    <t>Ilmoittautuminen virheellisillä tiedoilla</t>
-  </si>
-  <si>
-    <t>Osaa navigoida ilmoittautumiseen</t>
-  </si>
-  <si>
-    <t>Ilmoittautuminen epäonnistuu</t>
-  </si>
-  <si>
-    <t>Tiedot tulevat vaikka ne täyttää väärin</t>
-  </si>
-  <si>
-    <t>Linkit</t>
-  </si>
-  <si>
-    <t>Linkkejä on sivulla</t>
-  </si>
-  <si>
-    <t>Linkit toimivat</t>
-  </si>
-  <si>
-    <t>Toimii</t>
-  </si>
-  <si>
-    <t>Pluginissa kävelyn lisääminen</t>
-  </si>
-  <si>
-    <t>Uusi kävely tulee</t>
-  </si>
-  <si>
-    <t>Kävelyn luonti onnistuu</t>
-  </si>
-  <si>
-    <t>Pluginissa kävelyn poisto</t>
-  </si>
-  <si>
-    <t>Kävely poistuu</t>
-  </si>
-  <si>
-    <t>Kävelyn poisto onnistuu</t>
-  </si>
-  <si>
-    <t>Pelin toiminta</t>
-  </si>
-  <si>
-    <t>Sivulle navigoiminen</t>
-  </si>
-  <si>
-    <t>Peliä pystyy pelaamaan</t>
-  </si>
-  <si>
-    <t>Peli toimii</t>
-  </si>
-  <si>
-    <t>Kirjautuminen ulos</t>
-  </si>
-  <si>
-    <t>Painikkeen löytäminen</t>
-  </si>
-  <si>
-    <t>Admin kirjautuu ulos</t>
-  </si>
-  <si>
-    <t>Kirjautuu ulos</t>
-  </si>
-  <si>
-    <t>Haun toiminta</t>
-  </si>
-  <si>
-    <t>Haun löytäminen</t>
-  </si>
-  <si>
-    <t>Pystyy hakemaan</t>
-  </si>
-  <si>
-    <t>Haku toimii</t>
-  </si>
-  <si>
     <t>Niko Heikkilä</t>
   </si>
   <si>
@@ -207,6 +99,27 @@
   </si>
   <si>
     <t>Tiedot ovat kannassa</t>
+  </si>
+  <si>
+    <t>Jarjestajan poisto</t>
+  </si>
+  <si>
+    <t>Jarjestaja poistuu</t>
+  </si>
+  <si>
+    <t>Jarjestajan poisto onnistuu</t>
+  </si>
+  <si>
+    <t>Tietokantaan kirjautuminen</t>
+  </si>
+  <si>
+    <t>nimi ja salasana</t>
+  </si>
+  <si>
+    <t>kirjautuminen</t>
+  </si>
+  <si>
+    <t>kirjautuminen onnistuu</t>
   </si>
 </sst>
 </file>
@@ -583,7 +496,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +504,7 @@
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" bestFit="1" customWidth="1"/>
@@ -602,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -618,7 +531,7 @@
       </c>
       <c r="G2" s="3">
         <f>COUNTA(D12:D24)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -627,7 +540,7 @@
       </c>
       <c r="G3" s="3">
         <f>COUNTA(F12:F24)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -645,7 +558,7 @@
       </c>
       <c r="G5" s="3">
         <f>COUNTIF($F$11:$F$24,"v")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -672,7 +585,7 @@
       </c>
       <c r="G8" s="3">
         <f>COUNTIF(F11:F24,"ok")</f>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -681,7 +594,7 @@
       </c>
       <c r="G9" s="4">
         <f>G8/G3</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -715,10 +628,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
@@ -737,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>21</v>
@@ -759,68 +672,44 @@
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>5</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
@@ -828,21 +717,11 @@
       <c r="A17" s="2">
         <v>6</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
@@ -850,21 +729,11 @@
       <c r="A18" s="2">
         <v>7</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
@@ -872,21 +741,11 @@
       <c r="A19" s="2">
         <v>8</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
@@ -894,21 +753,11 @@
       <c r="A20" s="2">
         <v>9</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
@@ -916,21 +765,11 @@
       <c r="A21" s="2">
         <v>10</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
